--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3252.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3252.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.856091715381949</v>
+        <v>0.2418750077486038</v>
       </c>
       <c r="B1">
-        <v>2.025450776904463</v>
+        <v>0.1969166398048401</v>
       </c>
       <c r="C1">
-        <v>2.12050983613314</v>
+        <v>0.1748537868261337</v>
       </c>
       <c r="D1">
-        <v>2.889092022547334</v>
+        <v>0.1919311583042145</v>
       </c>
       <c r="E1">
-        <v>2.851378293047758</v>
+        <v>0.238029956817627</v>
       </c>
     </row>
   </sheetData>
